--- a/team_specific_matrix/SMU_B.xlsx
+++ b/team_specific_matrix/SMU_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2307692307692308</v>
+        <v>0.2332155477031802</v>
       </c>
       <c r="C2">
-        <v>0.4855769230769231</v>
+        <v>0.4840989399293286</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1971153846153846</v>
+        <v>0.1872791519434629</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08653846153846154</v>
+        <v>0.09540636042402827</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C3">
-        <v>0.04</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.01</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="P3">
-        <v>0.66</v>
+        <v>0.7132352941176471</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.27</v>
+        <v>0.2279411764705882</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05882352941176471</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6176470588235294</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3235294117647059</v>
+        <v>0.3404255319148936</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0684931506849315</v>
+        <v>0.06806282722513089</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0410958904109589</v>
+        <v>0.03664921465968586</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0410958904109589</v>
+        <v>0.0418848167539267</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2465753424657534</v>
+        <v>0.256544502617801</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0136986301369863</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1917808219178082</v>
+        <v>0.1780104712041885</v>
       </c>
       <c r="R6">
-        <v>0.04794520547945205</v>
+        <v>0.0418848167539267</v>
       </c>
       <c r="S6">
-        <v>0.3493150684931507</v>
+        <v>0.3612565445026178</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07377049180327869</v>
+        <v>0.08187134502923976</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04098360655737705</v>
+        <v>0.04678362573099415</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06557377049180328</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1967213114754098</v>
+        <v>0.1871345029239766</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.00819672131147541</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1229508196721311</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="R7">
-        <v>0.05737704918032787</v>
+        <v>0.06432748538011696</v>
       </c>
       <c r="S7">
-        <v>0.4344262295081967</v>
+        <v>0.4502923976608187</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08997429305912596</v>
+        <v>0.087890625</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01542416452442159</v>
+        <v>0.015625</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07455012853470437</v>
+        <v>0.068359375</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1259640102827763</v>
+        <v>0.125</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.012853470437018</v>
+        <v>0.017578125</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1465295629820051</v>
+        <v>0.158203125</v>
       </c>
       <c r="R8">
-        <v>0.1053984575835476</v>
+        <v>0.095703125</v>
       </c>
       <c r="S8">
-        <v>0.4293059125964011</v>
+        <v>0.431640625</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0821917808219178</v>
+        <v>0.06951871657754011</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.00684931506849315</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="E9">
-        <v>0.00684931506849315</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="F9">
-        <v>0.0547945205479452</v>
+        <v>0.053475935828877</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1575342465753425</v>
+        <v>0.1550802139037433</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.00684931506849315</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1301369863013699</v>
+        <v>0.1390374331550802</v>
       </c>
       <c r="R9">
-        <v>0.0821917808219178</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="S9">
-        <v>0.4726027397260274</v>
+        <v>0.4598930481283423</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1065292096219931</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02176403207331042</v>
+        <v>0.02157031924072476</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05956471935853379</v>
+        <v>0.06212251941328732</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1397479954180985</v>
+        <v>0.1363244176013805</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01145475372279496</v>
+        <v>0.01035375323554789</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1993127147766323</v>
+        <v>0.1949956859361519</v>
       </c>
       <c r="R10">
-        <v>0.06987399770904926</v>
+        <v>0.06902502157031924</v>
       </c>
       <c r="S10">
-        <v>0.3917525773195876</v>
+        <v>0.3908541846419327</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.105</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="K11">
-        <v>0.235</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="L11">
-        <v>0.485</v>
+        <v>0.4928571428571429</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.015</v>
+        <v>0.01785714285714286</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.773972602739726</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1442307692307692</v>
+        <v>0.1438356164383562</v>
       </c>
       <c r="K12">
-        <v>0.009615384615384616</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="L12">
-        <v>0.04807692307692308</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04807692307692308</v>
+        <v>0.03424657534246575</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6071428571428571</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3571428571428572</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03571428571428571</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,46 +1277,46 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02325581395348837</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2248062015503876</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="I15">
-        <v>0.1007751937984496</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="J15">
+        <v>0.3197674418604651</v>
+      </c>
+      <c r="K15">
+        <v>0.05232558139534884</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0.005813953488372093</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0.01744186046511628</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>0.3023255813953488</v>
-      </c>
-      <c r="K15">
-        <v>0.03875968992248062</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0.02325581395348837</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0.2868217054263566</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.024</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.208</v>
+        <v>0.1781609195402299</v>
       </c>
       <c r="I16">
-        <v>0.128</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="J16">
-        <v>0.352</v>
+        <v>0.3505747126436782</v>
       </c>
       <c r="K16">
-        <v>0.112</v>
+        <v>0.1091954022988506</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.056</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.12</v>
+        <v>0.1551724137931035</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02389078498293516</v>
+        <v>0.02077922077922078</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1774744027303754</v>
+        <v>0.1922077922077922</v>
       </c>
       <c r="I17">
-        <v>0.10580204778157</v>
+        <v>0.09350649350649351</v>
       </c>
       <c r="J17">
-        <v>0.378839590443686</v>
+        <v>0.3792207792207792</v>
       </c>
       <c r="K17">
-        <v>0.09556313993174062</v>
+        <v>0.09870129870129871</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01023890784982935</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002597402597402597</v>
       </c>
       <c r="O17">
-        <v>0.04436860068259386</v>
+        <v>0.04415584415584416</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1638225255972696</v>
+        <v>0.1558441558441558</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.015625</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.21875</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="I18">
-        <v>0.1015625</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="J18">
-        <v>0.390625</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="K18">
-        <v>0.0625</v>
+        <v>0.06626506024096386</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.015625</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1953125</v>
+        <v>0.1927710843373494</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.007905138339920948</v>
+        <v>0.01255539143279173</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2529644268774703</v>
+        <v>0.2518463810930576</v>
       </c>
       <c r="I19">
-        <v>0.07509881422924901</v>
+        <v>0.07385524372230429</v>
       </c>
       <c r="J19">
-        <v>0.3359683794466403</v>
+        <v>0.3293943870014771</v>
       </c>
       <c r="K19">
-        <v>0.09288537549407115</v>
+        <v>0.0982274741506647</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02272727272727273</v>
+        <v>0.01994091580502216</v>
       </c>
       <c r="N19">
-        <v>0.0009881422924901185</v>
+        <v>0.0007385524372230429</v>
       </c>
       <c r="O19">
-        <v>0.06620553359683795</v>
+        <v>0.06573116691285082</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1452569169960474</v>
+        <v>0.1477104874446086</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/SMU_B.xlsx
+++ b/team_specific_matrix/SMU_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2332155477031802</v>
+        <v>0.2262295081967213</v>
       </c>
       <c r="C2">
-        <v>0.4840989399293286</v>
+        <v>0.5016393442622951</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1872791519434629</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09540636042402827</v>
+        <v>0.09180327868852459</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01470588235294118</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="C3">
-        <v>0.02941176470588235</v>
+        <v>0.03267973856209151</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.007352941176470588</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.007352941176470588</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="P3">
-        <v>0.7132352941176471</v>
+        <v>0.7320261437908496</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2279411764705882</v>
+        <v>0.2091503267973856</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0425531914893617</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6170212765957447</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3404255319148936</v>
+        <v>0.3265306122448979</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06806282722513089</v>
+        <v>0.06403940886699508</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03664921465968586</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0418848167539267</v>
+        <v>0.03940886699507389</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.256544502617801</v>
+        <v>0.2512315270935961</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01570680628272251</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1780104712041885</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="R6">
-        <v>0.0418848167539267</v>
+        <v>0.05911330049261083</v>
       </c>
       <c r="S6">
-        <v>0.3612565445026178</v>
+        <v>0.3645320197044335</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08187134502923976</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04678362573099415</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05263157894736842</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1871345029239766</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005847953216374269</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1111111111111111</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="R7">
-        <v>0.06432748538011696</v>
+        <v>0.05913978494623656</v>
       </c>
       <c r="S7">
-        <v>0.4502923976608187</v>
+        <v>0.4516129032258064</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.087890625</v>
+        <v>0.09392265193370165</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.015625</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.068359375</v>
+        <v>0.06998158379373849</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.125</v>
+        <v>0.1270718232044199</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.017578125</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.158203125</v>
+        <v>0.1583793738489871</v>
       </c>
       <c r="R8">
-        <v>0.095703125</v>
+        <v>0.09576427255985268</v>
       </c>
       <c r="S8">
-        <v>0.431640625</v>
+        <v>0.4217311233885819</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06951871657754011</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0106951871657754</v>
+        <v>0.009950248756218905</v>
       </c>
       <c r="E9">
-        <v>0.0053475935828877</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="F9">
-        <v>0.053475935828877</v>
+        <v>0.05472636815920398</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1550802139037433</v>
+        <v>0.1592039800995025</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0106951871657754</v>
+        <v>0.009950248756218905</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1390374331550802</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="R9">
-        <v>0.09625668449197861</v>
+        <v>0.08955223880597014</v>
       </c>
       <c r="S9">
-        <v>0.4598930481283423</v>
+        <v>0.4477611940298508</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1147540983606557</v>
+        <v>0.1138732959101844</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02157031924072476</v>
+        <v>0.02085004009623095</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06212251941328732</v>
+        <v>0.06174819566960706</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1363244176013805</v>
+        <v>0.1299117882919006</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01035375323554789</v>
+        <v>0.009623095429029671</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1949956859361519</v>
+        <v>0.1924619085805934</v>
       </c>
       <c r="R10">
-        <v>0.06902502157031924</v>
+        <v>0.07457898957497995</v>
       </c>
       <c r="S10">
-        <v>0.3908541846419327</v>
+        <v>0.3969526864474739</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.15</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0.1071428571428571</v>
       </c>
       <c r="K11">
-        <v>0.2321428571428572</v>
+        <v>0.2402597402597403</v>
       </c>
       <c r="L11">
-        <v>0.4928571428571429</v>
+        <v>0.474025974025974</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01785714285714286</v>
+        <v>0.01948051948051948</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.773972602739726</v>
+        <v>0.7597402597402597</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1438356164383562</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K12">
-        <v>0.00684931506849315</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="L12">
-        <v>0.0410958904109589</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03424657534246575</v>
+        <v>0.05194805194805195</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5833333333333334</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3611111111111111</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05555555555555555</v>
+        <v>0.04878048780487805</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01744186046511628</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1976744186046512</v>
+        <v>0.1912568306010929</v>
       </c>
       <c r="I15">
-        <v>0.0872093023255814</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="J15">
-        <v>0.3197674418604651</v>
+        <v>0.3387978142076503</v>
       </c>
       <c r="K15">
-        <v>0.05232558139534884</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005813953488372093</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.01744186046511628</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3023255813953488</v>
+        <v>0.2841530054644809</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02298850574712644</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1781609195402299</v>
+        <v>0.1813471502590674</v>
       </c>
       <c r="I16">
-        <v>0.1379310344827586</v>
+        <v>0.1243523316062176</v>
       </c>
       <c r="J16">
-        <v>0.3505747126436782</v>
+        <v>0.3471502590673575</v>
       </c>
       <c r="K16">
-        <v>0.1091954022988506</v>
+        <v>0.1088082901554404</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04597701149425287</v>
+        <v>0.04145077720207254</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1551724137931035</v>
+        <v>0.1761658031088083</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02077922077922078</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1922077922077922</v>
+        <v>0.1868932038834951</v>
       </c>
       <c r="I17">
-        <v>0.09350649350649351</v>
+        <v>0.09223300970873786</v>
       </c>
       <c r="J17">
-        <v>0.3792207792207792</v>
+        <v>0.3810679611650485</v>
       </c>
       <c r="K17">
-        <v>0.09870129870129871</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01298701298701299</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="N17">
-        <v>0.002597402597402597</v>
+        <v>0.002427184466019417</v>
       </c>
       <c r="O17">
-        <v>0.04415584415584416</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1558441558441558</v>
+        <v>0.1577669902912621</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01204819277108434</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2048192771084337</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="I18">
-        <v>0.0963855421686747</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="J18">
-        <v>0.4096385542168675</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="K18">
-        <v>0.06626506024096386</v>
+        <v>0.05945945945945946</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01204819277108434</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.006024096385542169</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1927710843373494</v>
+        <v>0.2162162162162162</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01255539143279173</v>
+        <v>0.01227830832196453</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2518463810930576</v>
+        <v>0.2482946793997272</v>
       </c>
       <c r="I19">
-        <v>0.07385524372230429</v>
+        <v>0.07503410641200546</v>
       </c>
       <c r="J19">
-        <v>0.3293943870014771</v>
+        <v>0.3287858117326057</v>
       </c>
       <c r="K19">
-        <v>0.0982274741506647</v>
+        <v>0.09959072305593451</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01994091580502216</v>
+        <v>0.02046384720327422</v>
       </c>
       <c r="N19">
-        <v>0.0007385524372230429</v>
+        <v>0.0006821282401091405</v>
       </c>
       <c r="O19">
-        <v>0.06573116691285082</v>
+        <v>0.06343792633015007</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1477104874446086</v>
+        <v>0.1514324693042292</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/SMU_B.xlsx
+++ b/team_specific_matrix/SMU_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2262295081967213</v>
+        <v>0.2225705329153605</v>
       </c>
       <c r="C2">
-        <v>0.5016393442622951</v>
+        <v>0.5078369905956113</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.180327868852459</v>
+        <v>0.1755485893416928</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09180327868852459</v>
+        <v>0.09404388714733543</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0130718954248366</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="C3">
-        <v>0.03267973856209151</v>
+        <v>0.03680981595092025</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006535947712418301</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.006535947712418301</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="P3">
-        <v>0.7320261437908496</v>
+        <v>0.7300613496932515</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2091503267973856</v>
+        <v>0.196319018404908</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04081632653061224</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6326530612244898</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3265306122448979</v>
+        <v>0.3269230769230769</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06403940886699508</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03940886699507389</v>
+        <v>0.0380952380952381</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2512315270935961</v>
+        <v>0.2523809523809524</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01477832512315271</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1724137931034483</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="R6">
-        <v>0.05911330049261083</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="S6">
-        <v>0.3645320197044335</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08602150537634409</v>
+        <v>0.09137055837563451</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04301075268817205</v>
+        <v>0.04060913705583756</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05376344086021505</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1827956989247312</v>
+        <v>0.1725888324873096</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005376344086021506</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1182795698924731</v>
+        <v>0.116751269035533</v>
       </c>
       <c r="R7">
-        <v>0.05913978494623656</v>
+        <v>0.06091370558375635</v>
       </c>
       <c r="S7">
-        <v>0.4516129032258064</v>
+        <v>0.4619289340101523</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09392265193370165</v>
+        <v>0.09498207885304659</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01657458563535912</v>
+        <v>0.01971326164874552</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06998158379373849</v>
+        <v>0.07168458781362007</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1270718232044199</v>
+        <v>0.1254480286738351</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01657458563535912</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1583793738489871</v>
+        <v>0.1577060931899641</v>
       </c>
       <c r="R8">
-        <v>0.09576427255985268</v>
+        <v>0.09498207885304659</v>
       </c>
       <c r="S8">
-        <v>0.4217311233885819</v>
+        <v>0.4193548387096774</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07462686567164178</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009950248756218905</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="E9">
-        <v>0.004975124378109453</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="F9">
-        <v>0.05472636815920398</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1592039800995025</v>
+        <v>0.1586538461538461</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009950248756218905</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1492537313432836</v>
+        <v>0.1586538461538461</v>
       </c>
       <c r="R9">
-        <v>0.08955223880597014</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="S9">
-        <v>0.4477611940298508</v>
+        <v>0.4423076923076923</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1138732959101844</v>
+        <v>0.1140215716486903</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02085004009623095</v>
+        <v>0.02080123266563945</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06174819566960706</v>
+        <v>0.06240369799691833</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1299117882919006</v>
+        <v>0.1294298921417565</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009623095429029671</v>
+        <v>0.01001540832049307</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1924619085805934</v>
+        <v>0.1926040061633282</v>
       </c>
       <c r="R10">
-        <v>0.07457898957497995</v>
+        <v>0.07318952234206472</v>
       </c>
       <c r="S10">
-        <v>0.3969526864474739</v>
+        <v>0.3975346687211094</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1590909090909091</v>
+        <v>0.151702786377709</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1071428571428571</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K11">
-        <v>0.2402597402597403</v>
+        <v>0.2321981424148607</v>
       </c>
       <c r="L11">
-        <v>0.474025974025974</v>
+        <v>0.4922600619195047</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01948051948051948</v>
+        <v>0.01857585139318885</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7597402597402597</v>
+        <v>0.7604790419161677</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1428571428571428</v>
+        <v>0.1437125748502994</v>
       </c>
       <c r="K12">
-        <v>0.006493506493506494</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="L12">
-        <v>0.03896103896103896</v>
+        <v>0.03592814371257485</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05194805194805195</v>
+        <v>0.05389221556886228</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6097560975609756</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3414634146341464</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04878048780487805</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01639344262295082</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1912568306010929</v>
+        <v>0.1871657754010695</v>
       </c>
       <c r="I15">
-        <v>0.08743169398907104</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="J15">
-        <v>0.3387978142076503</v>
+        <v>0.3368983957219251</v>
       </c>
       <c r="K15">
-        <v>0.06010928961748634</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00546448087431694</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.01639344262295082</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2841530054644809</v>
+        <v>0.2887700534759358</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02072538860103627</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1813471502590674</v>
+        <v>0.1831683168316832</v>
       </c>
       <c r="I16">
-        <v>0.1243523316062176</v>
+        <v>0.1237623762376238</v>
       </c>
       <c r="J16">
-        <v>0.3471502590673575</v>
+        <v>0.3514851485148515</v>
       </c>
       <c r="K16">
-        <v>0.1088082901554404</v>
+        <v>0.103960396039604</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04145077720207254</v>
+        <v>0.0396039603960396</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1761658031088083</v>
+        <v>0.1782178217821782</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01941747572815534</v>
+        <v>0.01864801864801865</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1868932038834951</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I17">
-        <v>0.09223300970873786</v>
+        <v>0.09324009324009325</v>
       </c>
       <c r="J17">
-        <v>0.3810679611650485</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K17">
-        <v>0.0970873786407767</v>
+        <v>0.0979020979020979</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01456310679611651</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="N17">
-        <v>0.002427184466019417</v>
+        <v>0.002331002331002331</v>
       </c>
       <c r="O17">
-        <v>0.04854368932038835</v>
+        <v>0.04662004662004662</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1577669902912621</v>
+        <v>0.1608391608391608</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01081081081081081</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1891891891891892</v>
+        <v>0.1894736842105263</v>
       </c>
       <c r="I18">
-        <v>0.0918918918918919</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="J18">
-        <v>0.4054054054054054</v>
+        <v>0.4052631578947368</v>
       </c>
       <c r="K18">
-        <v>0.05945945945945946</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01621621621621622</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.01081081081081081</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.2162162162162162</v>
+        <v>0.2157894736842105</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01227830832196453</v>
+        <v>0.01177240026160889</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2482946793997272</v>
+        <v>0.2452583387835186</v>
       </c>
       <c r="I19">
-        <v>0.07503410641200546</v>
+        <v>0.07521255722694571</v>
       </c>
       <c r="J19">
-        <v>0.3287858117326057</v>
+        <v>0.3296272073250491</v>
       </c>
       <c r="K19">
-        <v>0.09959072305593451</v>
+        <v>0.1026814911706998</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02046384720327422</v>
+        <v>0.02027468933943754</v>
       </c>
       <c r="N19">
-        <v>0.0006821282401091405</v>
+        <v>0.0006540222367560497</v>
       </c>
       <c r="O19">
-        <v>0.06343792633015007</v>
+        <v>0.06147809025506867</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1514324693042292</v>
+        <v>0.1530412034009156</v>
       </c>
     </row>
   </sheetData>
